--- a/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278206</v>
+        <v>278207</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752450318</v>
+        <v>1752504854</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6011</v>
+        <v>6012</v>
       </c>
       <c r="D111" t="n">
         <v>1238</v>
       </c>
       <c r="E111" t="n">
-        <v>12081251</v>
+        <v>12096389</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17558</v>
+        <v>17559</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38629155</v>
+        <v>38636494</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19726</v>
+        <v>19729</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56630010</v>
+        <v>56645610</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5494,13 +5494,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="D124" t="n">
         <v>1013</v>
       </c>
       <c r="E124" t="n">
-        <v>3902663</v>
+        <v>3903857</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4603</v>
+        <v>4606</v>
       </c>
       <c r="D125" t="n">
         <v>509</v>
       </c>
       <c r="E125" t="n">
-        <v>13149372</v>
+        <v>13159157</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5576,13 +5576,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5644</v>
+        <v>5646</v>
       </c>
       <c r="D126" t="n">
         <v>1176</v>
       </c>
       <c r="E126" t="n">
-        <v>8176193</v>
+        <v>8180829</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17178152</v>
+        <v>17181109</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="D139" t="n">
         <v>409</v>
       </c>
       <c r="E139" t="n">
-        <v>9285782</v>
+        <v>9344392</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285088</v>
+        <v>285089</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1212827088</v>
+        <v>1212846471</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562650</v>
+        <v>562653</v>
       </c>
       <c r="D169" t="n">
         <v>60956</v>
       </c>
       <c r="E169" t="n">
-        <v>1285421649</v>
+        <v>1285790763</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367518</v>
+        <v>367525</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847574967</v>
+        <v>2847630590</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115207</v>
+        <v>115211</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>448152992</v>
+        <v>448574472</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357335</v>
+        <v>357339</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1019782646</v>
+        <v>1019792833</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96774</v>
+        <v>96775</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174799924</v>
+        <v>174802756</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235778</v>
+        <v>235780</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813266764</v>
+        <v>813277362</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141514</v>
+        <v>141516</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341184242</v>
+        <v>341192575</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -10824,13 +10824,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>62451</v>
+        <v>62455</v>
       </c>
       <c r="D254" t="n">
         <v>23921</v>
       </c>
       <c r="E254" t="n">
-        <v>99567670</v>
+        <v>99573670</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
